--- a/excel/format_nota.xlsx
+++ b/excel/format_nota.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp82\htdocs\belajar\belajar_import_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp82\htdocs\SH\bintang\app\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7795ADD-23B2-44CA-911E-7B0B0A17DF09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A26B6F-31BE-478A-9E81-E1DB36069B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3765" windowWidth="13020" windowHeight="7995" xr2:uid="{2727D894-3046-4004-90C1-69651685A3F2}"/>
+    <workbookView xWindow="3120" yWindow="3075" windowWidth="13020" windowHeight="7995" xr2:uid="{2727D894-3046-4004-90C1-69651685A3F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,8 +104,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -157,7 +157,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -167,7 +167,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency 2" xfId="1" xr:uid="{28B86A2D-6339-43D0-ABD8-2846B8D40763}"/>
@@ -486,7 +486,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +531,7 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>50000000</v>
+        <v>50000001</v>
       </c>
       <c r="F2" s="1">
         <v>45397.727777777778</v>

--- a/excel/format_nota.xlsx
+++ b/excel/format_nota.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp82\htdocs\SH\bintang\app\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp82\htdocs\belajar\belajar_import_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A26B6F-31BE-478A-9E81-E1DB36069B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFF54A4-5871-496A-ADEE-FF7CF36DBCAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3075" windowWidth="13020" windowHeight="7995" xr2:uid="{2727D894-3046-4004-90C1-69651685A3F2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{2727D894-3046-4004-90C1-69651685A3F2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MASTER" sheetId="2" r:id="rId1"/>
+    <sheet name="contoh" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>area</t>
   </si>
@@ -39,15 +40,9 @@
     <t>salesman</t>
   </si>
   <si>
-    <t>id_partner</t>
-  </si>
-  <si>
     <t>week</t>
   </si>
   <si>
-    <t>id_asset</t>
-  </si>
-  <si>
     <t>tanggal</t>
   </si>
   <si>
@@ -72,31 +67,37 @@
     <t>TAGIHAN</t>
   </si>
   <si>
-    <t>M. P. S.</t>
-  </si>
-  <si>
-    <t>INDAH MAJU 2 - SEI APIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIAK-RISKA - SIAK </t>
-  </si>
-  <si>
-    <t>SIAK-DN - S PAGAR</t>
-  </si>
-  <si>
-    <t>NAZWA - S PAGAR</t>
-  </si>
-  <si>
-    <t>SIAK- DN -SIAK</t>
-  </si>
-  <si>
-    <t>FAJAR - MAREDAN</t>
-  </si>
-  <si>
     <t>MITRA JAYA</t>
   </si>
   <si>
     <t>AJO DINI</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>pku</t>
+  </si>
+  <si>
+    <t>M.P.S.</t>
+  </si>
+  <si>
+    <t>INDAH MAJU 2</t>
+  </si>
+  <si>
+    <t>SIAK-RISKA</t>
+  </si>
+  <si>
+    <t>SIAK-DN</t>
+  </si>
+  <si>
+    <t>NAZWA</t>
+  </si>
+  <si>
+    <t>SIAK- DN</t>
+  </si>
+  <si>
+    <t>FAJAR</t>
   </si>
 </sst>
 </file>
@@ -482,11 +483,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BCB9A7-3058-44DB-81A3-7EE0E932AA49}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE3128E-333B-4826-9CB1-72206C0751A9}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +498,133 @@
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BCB9A7-3058-44DB-81A3-7EE0E932AA49}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,50 +638,44 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45397.727777777778</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>400000079</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>50000001</v>
-      </c>
-      <c r="F2" s="1">
-        <v>45397.727777777778</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -565,13 +686,13 @@
         <v>45288</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5">
         <v>1510000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -582,13 +703,13 @@
         <v>45324</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5">
         <v>1585000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -599,13 +720,13 @@
         <v>45324</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5">
         <v>3170000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -616,13 +737,13 @@
         <v>45324</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5">
         <v>2377500</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -633,13 +754,13 @@
         <v>45332</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5">
         <v>1585000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -650,13 +771,13 @@
         <v>45332</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10" s="5">
         <v>792500</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -667,13 +788,13 @@
         <v>45332</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E11" s="5">
         <v>1585000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -684,13 +805,13 @@
         <v>45353</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E12" s="5">
         <v>90000000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -701,7 +822,7 @@
         <v>45372</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E13" s="5">
         <v>1430000</v>
@@ -709,5 +830,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>